--- a/data/trans_dic/ProblemasDormirP33b-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,92%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>22,76; 29,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>34,77; 40,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>30,73; 35,19</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,19%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>9,14; 12,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,25; 17,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>11,84; 14,32</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,52%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>9,22; 14,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>12,86; 17,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>11,75; 15,33</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,04%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,04; 14,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>18,12; 21,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>15,93; 17,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProblemasDormirP33b-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 29,54</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,77; 40,42</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,73; 35,19</t>
+          <t>0; 0,09</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,14; 12,09</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,25; 17,41</t>
+          <t>0; 0,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,84; 14,32</t>
+          <t>0; 0,04</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,72</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 17,87</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,75; 15,33</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,52</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,12; 21,63</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 17,94</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProblemasDormirP33b-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas para dormir a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1429</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1016</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1151</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2207</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1471</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1821</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1262</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1489</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1311</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1566</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/ProblemasDormirP33b-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Estudios-trans_dic.xlsx
@@ -557,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,79%</t>
         </is>
       </c>
     </row>
@@ -580,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>21,64; 28,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>34,0; 39,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>29,66; 34,24</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,75%</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,59; 10,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>10,53; 16,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,16; 13,34</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,38%</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>9,13; 14,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>12,88; 17,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>11,55; 15,48</t>
         </is>
       </c>
     </row>
@@ -707,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,63%</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,44; 13,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>15,12; 20,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>13,67; 16,94</t>
         </is>
       </c>
     </row>
@@ -849,17 +849,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>514</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>690</t>
         </is>
       </c>
     </row>
@@ -872,17 +872,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>128248</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>275570</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>403818</t>
         </is>
       </c>
     </row>
@@ -895,17 +895,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 1429</t>
+          <t>111455; 147905</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 1016</t>
+          <t>256876; 297566</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0; 1151</t>
+          <t>376816; 435007</t>
         </is>
       </c>
     </row>
@@ -922,17 +922,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>510</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>753</t>
         </is>
       </c>
     </row>
@@ -945,17 +945,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>212174</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>319978</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>532152</t>
         </is>
       </c>
     </row>
@@ -968,17 +968,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2207</t>
+          <t>150943; 248880</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1471</t>
+          <t>235713; 369981</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1770</t>
+          <t>414760; 604264</t>
         </is>
       </c>
     </row>
@@ -995,17 +995,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>149</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>224</t>
         </is>
       </c>
     </row>
@@ -1018,17 +1018,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75132</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>99804</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>174936</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0; 1821</t>
+          <t>59035; 96405</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0; 1262</t>
+          <t>85088; 115827</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0; 1489</t>
+          <t>150958; 202362</t>
         </is>
       </c>
     </row>
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1667</t>
         </is>
       </c>
     </row>
@@ -1091,17 +1091,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>415554</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>695352</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1110906</t>
         </is>
       </c>
     </row>
@@ -1114,17 +1114,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1970</t>
+          <t>325997; 465529</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1311</t>
+          <t>552520; 761376</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1566</t>
+          <t>971342; 1203844</t>
         </is>
       </c>
     </row>
